--- a/DOM_Banner/output/dept_banner/Arista Chand_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Arista Chand_2023.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2403596800", "https://openalex.org/W2462950029", "https://openalex.org/W4303984444", "https://openalex.org/W2188114270", "https://openalex.org/W2415335116", "https://openalex.org/W4303984339", "https://openalex.org/W2077758036", "https://openalex.org/W4225323832", "https://openalex.org/W3133971387", "https://openalex.org/W2399302455")</t>
+          <t>c("https://openalex.org/W2781364658", "https://openalex.org/W3086268733", "https://openalex.org/W2765250780", "https://openalex.org/W2026979049", "https://openalex.org/W2778903907", "https://openalex.org/W2414368234", "https://openalex.org/W3041399715", "https://openalex.org/W4247253261", "https://openalex.org/W4225326973", "https://openalex.org/W2748952813")</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Arista Chand_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Arista Chand_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,19 +360,19 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
@@ -385,164 +385,76 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>S. Jothi, J. Lenka, Mahima K Zandu, Arista Chand</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367607562</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Some Supplements Are Detriments of Health: A Case of Lysine Induced Eosinophilic Pneumonia</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5007336880", "https://openalex.org/A5014769913", "https://openalex.org/A5050355971", "https://openalex.org/A5015339797"), au_display_name = c("S. Jothi", "J. Lenka", "Mahima K Zandu", "Arista Chand"), au_orcid = c(NA, NA, "https://orcid.org/0000-0003-2724-6417", NA), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("Internal Medicine, University of Arizona College of Medicine, Tucson, AZ, United States", "Department of Pulmonary and Critical Care Medicine, University of Arizona Tucson, Tucson, AZ, United States", 
-"Internal Medicine, University of Arizona College of Medicine, Tucson, AZ, United States", "University of Arizona College of Medicine, Tucson, AZ, United States"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", 
-"https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US"), institution_type = c("education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"
-))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>2023-05-01</t>
@@ -560,137 +472,52 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6660</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6660</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4367607562</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4367607562", doi = "https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6660")</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6660</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2781364658", "https://openalex.org/W3086268733", "https://openalex.org/W2765250780", "https://openalex.org/W2026979049", "https://openalex.org/W2778903907", "https://openalex.org/W2414368234", "https://openalex.org/W3041399715", "https://openalex.org/W4247253261", "https://openalex.org/W4225326973", "https://openalex.org/W2748952813")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Arista Chand_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Arista Chand_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Internal Medicine, University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary and Critical Care Medicine, University of Arizona Tucson, Tucson, AZ, United States; Internal Medicine, University of Arizona College of Medicine, Tucson, AZ, United States; University of Arizona College of Medicine, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367607562</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Some Supplements Are Detriments of Health: A Case of Lysine Induced Eosinophilic Pneumonia</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6660</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6660</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
